--- a/Контент-план-Твердопаливні котли.xlsx
+++ b/Контент-план-Твердопаливні котли.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Цільова аудиторія</t>
   </si>
@@ -60,9 +60,6 @@
     <t>показали</t>
   </si>
   <si>
-    <t>Менеджери 25-30+</t>
-  </si>
-  <si>
     <t>Ознайомлення з перевагами продукту</t>
   </si>
   <si>
@@ -145,13 +142,61 @@
   </si>
   <si>
     <t>Огляд переваг</t>
+  </si>
+  <si>
+    <t>Надійність</t>
+  </si>
+  <si>
+    <t>Комфортне обслуговування</t>
+  </si>
+  <si>
+    <t>Сучасний Дизайн</t>
+  </si>
+  <si>
+    <t>Адаптивність</t>
+  </si>
+  <si>
+    <t>Можливість підлаштовувати параметри роботи під конкретне приміщення</t>
+  </si>
+  <si>
+    <t>Технічні приміщення - також можуть радувати.</t>
+  </si>
+  <si>
+    <t>Високий коефіцієнт корисної дій, енергія  в системі опалення але не в системі газовідведення.</t>
+  </si>
+  <si>
+    <t>Доброго дня, ми компанія БудЕкспрес з оглядом переваг, що отимує покупець котлів Альтеп та Кронос</t>
+  </si>
+  <si>
+    <t>Вільний доступ до всіх вузлів камери згоряння  для очистки від сажі</t>
+  </si>
+  <si>
+    <t>Велика топка дає можливість користувачу зменшити кількість контактів з обладнанням.</t>
+  </si>
+  <si>
+    <t>Високотехнологічна автоматика швидко реагує на параметри системи опалення, швидке притухання, швидке відновлення горіння</t>
+  </si>
+  <si>
+    <t>Ціновий діапазон</t>
+  </si>
+  <si>
+    <t>Товщина сталі 5 мм та "Вологі колісники". ( надійність доступна лише при використанні котлів у комплекті з термостатним обладнанням )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План відео - матеріалу "Твердопаливний котел" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджери віком 25-30+ </t>
+  </si>
+  <si>
+    <t>Оптимізація ціни  за рахунок грамотної оптимізації витрат на матеріали на етапі виготовлення</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,16 +222,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -218,16 +277,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,27 +748,27 @@
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -566,93 +778,93 @@
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:9">
       <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="C21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:9">
       <c r="C22">
         <f>D22*$C$21</f>
         <v>1000</v>
@@ -667,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:9">
       <c r="C23">
         <f t="shared" ref="C23:C25" si="0">D23*$C$21</f>
         <v>500</v>
@@ -679,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:9">
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -691,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:9">
       <c r="C25">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -703,66 +915,165 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="F28">
+    <row r="26" spans="2:9" ht="26.25">
+      <c r="H26" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="28" spans="2:9" ht="30.75" thickBot="1">
+      <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="2:9" ht="30">
+      <c r="F31" s="14"/>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="30">
+      <c r="F32" s="14"/>
+      <c r="G32" s="7">
+        <f>G31+1</f>
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="51" customHeight="1">
+      <c r="F33" s="14"/>
+      <c r="G33" s="7">
+        <f t="shared" ref="G33:G38" si="1">G32+1</f>
+        <v>3</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" ht="30">
+      <c r="F34" s="14"/>
+      <c r="G34" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="45">
+      <c r="F35" s="14"/>
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="30">
+      <c r="F36" s="14"/>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="30">
+      <c r="F37" s="14"/>
+      <c r="G37" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" s="14"/>
+      <c r="G38" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" ht="15.75" thickBot="1">
+      <c r="F39" s="16"/>
+      <c r="G39" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="G32">
+      <c r="H39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="6:9" ht="15.75" thickBot="1">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="6:9" ht="15.75" thickBot="1">
+      <c r="F41" s="8">
         <v>3</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9">
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9">
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>35</v>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -789,10 +1100,10 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -800,25 +1111,25 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -831,13 +1142,13 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
